--- a/Source_file.xlsx
+++ b/Source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
@@ -479,118 +479,30 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>22°</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>21°</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>18°</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-    </row>
+    <row r="4" ht="15" customHeight="1" s="3"/>
+    <row r="5" ht="15" customHeight="1" s="3"/>
+    <row r="6" ht="15" customHeight="1" s="3"/>
+    <row r="7" ht="15" customHeight="1" s="3"/>
+    <row r="8" ht="15" customHeight="1" s="3"/>
+    <row r="9" ht="15" customHeight="1" s="3"/>
+    <row r="10" ht="15" customHeight="1" s="3"/>
+    <row r="11" ht="15" customHeight="1" s="3"/>
     <row r="12" ht="15" customHeight="1" s="3"/>
     <row r="13" ht="15" customHeight="1" s="3"/>
     <row r="14" ht="15" customHeight="1" s="3"/>

--- a/Source_file.xlsx
+++ b/Source_file.xlsx
@@ -450,10 +450,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="21.39" customWidth="1" style="2" min="1" max="2"/>
     <col width="12.78" customWidth="1" style="2" min="4" max="4"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>22°</t>
+          <t>18°</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21°</t>
+          <t>22°</t>
         </is>
       </c>
     </row>

--- a/Source_file.xlsx
+++ b/Source_file.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>18°</t>
+          <t>22°</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22°</t>
+          <t>18°</t>
         </is>
       </c>
     </row>

--- a/Source_file.xlsx
+++ b/Source_file.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -37,6 +37,11 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -447,13 +452,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="21.39" customWidth="1" style="2" min="1" max="2"/>
     <col width="12.78" customWidth="1" style="2" min="4" max="4"/>
@@ -472,29 +477,18 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
-          <t>22°</t>
+          <t>19°</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>18°</t>
-        </is>
-      </c>
-    </row>
+    <row r="3" ht="15" customHeight="1" s="3"/>
     <row r="4" ht="15" customHeight="1" s="3"/>
     <row r="5" ht="15" customHeight="1" s="3"/>
     <row r="6" ht="15" customHeight="1" s="3"/>

--- a/Source_file.xlsx
+++ b/Source_file.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
@@ -477,24 +477,101 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>19°</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3"/>
-    <row r="4" ht="15" customHeight="1" s="3"/>
-    <row r="5" ht="15" customHeight="1" s="3"/>
-    <row r="6" ht="15" customHeight="1" s="3"/>
-    <row r="7" ht="15" customHeight="1" s="3"/>
-    <row r="8" ht="15" customHeight="1" s="3"/>
-    <row r="9" ht="15" customHeight="1" s="3"/>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>22°</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>20°</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>21°</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>19°</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>21°</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>19°</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21°</t>
+        </is>
+      </c>
+    </row>
     <row r="10" ht="15" customHeight="1" s="3"/>
     <row r="11" ht="15" customHeight="1" s="3"/>
     <row r="12" ht="15" customHeight="1" s="3"/>

--- a/Source_file.xlsx
+++ b/Source_file.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
@@ -477,101 +477,24 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>21°</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>21°</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>21°</t>
-        </is>
-      </c>
-    </row>
+    <row r="3" ht="15" customHeight="1" s="3"/>
+    <row r="4" ht="15" customHeight="1" s="3"/>
+    <row r="5" ht="15" customHeight="1" s="3"/>
+    <row r="6" ht="15" customHeight="1" s="3"/>
+    <row r="7" ht="15" customHeight="1" s="3"/>
+    <row r="8" ht="15" customHeight="1" s="3"/>
+    <row r="9" ht="15" customHeight="1" s="3"/>
     <row r="10" ht="15" customHeight="1" s="3"/>
     <row r="11" ht="15" customHeight="1" s="3"/>
     <row r="12" ht="15" customHeight="1" s="3"/>

--- a/Source_file.xlsx
+++ b/Source_file.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
@@ -477,19 +477,41 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>21°</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>20°</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3"/>
-    <row r="4" ht="15" customHeight="1" s="3"/>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>18°</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20°</t>
+        </is>
+      </c>
+    </row>
     <row r="5" ht="15" customHeight="1" s="3"/>
     <row r="6" ht="15" customHeight="1" s="3"/>
     <row r="7" ht="15" customHeight="1" s="3"/>
